--- a/excel_automation/backend/routes/sample.xlsx
+++ b/excel_automation/backend/routes/sample.xlsx
@@ -611,9 +611,17 @@
           <t>大谷</t>
         </is>
       </c>
-      <c r="B3" s="1" t="n"/>
-      <c r="C3" s="1" t="n"/>
-      <c r="D3" s="1" t="n"/>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>74</v>
+      </c>
       <c r="E3" s="1" t="n"/>
       <c r="F3" s="1" t="n"/>
       <c r="G3" s="1" t="n"/>
@@ -622,9 +630,17 @@
           <t>大谷</t>
         </is>
       </c>
-      <c r="J3" s="1" t="n"/>
-      <c r="K3" s="1" t="n"/>
-      <c r="L3" s="1" t="n"/>
+      <c r="J3" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16</t>
+        </is>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L3" s="1" t="n">
+        <v>140</v>
+      </c>
       <c r="M3" s="1" t="n"/>
       <c r="N3" s="1" t="n"/>
       <c r="O3" s="1" t="n"/>
@@ -657,10 +673,10 @@
         </is>
       </c>
       <c r="C4" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="E4" s="1" t="n"/>
       <c r="F4" s="1" t="n"/>
